--- a/fuzzy_stability_analysis/results/fuz_stability_link/M/fuzziness_intervals.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/M/fuzziness_intervals.xlsx
@@ -27,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
   </si>
   <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>n_obs</t>
@@ -485,31 +485,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.998</v>
       </c>
       <c r="D2">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="E2">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="G2">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="H2">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="I2">
-        <v>0.982</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J2">
-        <v>116</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -517,31 +517,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.989</v>
+        <v>0.995</v>
       </c>
       <c r="C3">
         <v>0.986</v>
       </c>
       <c r="D3">
-        <v>0.981</v>
+        <v>0.967</v>
       </c>
       <c r="E3">
-        <v>0.973</v>
+        <v>0.927</v>
       </c>
       <c r="F3">
-        <v>0.986</v>
+        <v>0.979</v>
       </c>
       <c r="G3">
-        <v>0.973</v>
+        <v>0.968</v>
       </c>
       <c r="H3">
-        <v>0.965</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I3">
-        <v>0.954</v>
+        <v>0.9</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -549,31 +549,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="C4">
-        <v>0.998</v>
+        <v>0.969</v>
       </c>
       <c r="D4">
-        <v>0.994</v>
+        <v>0.931</v>
       </c>
       <c r="E4">
-        <v>0.987</v>
+        <v>0.863</v>
       </c>
       <c r="F4">
-        <v>0.995</v>
+        <v>0.971</v>
       </c>
       <c r="G4">
-        <v>0.985</v>
+        <v>0.946</v>
       </c>
       <c r="H4">
-        <v>0.979</v>
+        <v>0.906</v>
       </c>
       <c r="I4">
-        <v>0.967</v>
+        <v>0.844</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -581,31 +581,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.908</v>
       </c>
       <c r="D5">
-        <v>0.995</v>
+        <v>0.875</v>
       </c>
       <c r="E5">
-        <v>0.989</v>
+        <v>0.827</v>
       </c>
       <c r="F5">
-        <v>0.994</v>
+        <v>0.925</v>
       </c>
       <c r="G5">
-        <v>0.988</v>
+        <v>0.893</v>
       </c>
       <c r="H5">
-        <v>0.978</v>
+        <v>0.856</v>
       </c>
       <c r="I5">
-        <v>0.968</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -613,31 +613,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.992</v>
+        <v>0.946</v>
       </c>
       <c r="C6">
-        <v>0.971</v>
+        <v>0.924</v>
       </c>
       <c r="D6">
-        <v>0.944</v>
+        <v>0.894</v>
       </c>
       <c r="E6">
-        <v>0.92</v>
+        <v>0.806</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G6">
-        <v>0.963</v>
+        <v>0.903</v>
       </c>
       <c r="H6">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="I6">
-        <v>0.901</v>
+        <v>0.798</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -645,31 +645,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.961</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.931</v>
       </c>
       <c r="E7">
-        <v>0.992</v>
+        <v>0.867</v>
       </c>
       <c r="F7">
-        <v>0.991</v>
+        <v>0.971</v>
       </c>
       <c r="G7">
-        <v>0.986</v>
+        <v>0.951</v>
       </c>
       <c r="H7">
-        <v>0.979</v>
+        <v>0.917</v>
       </c>
       <c r="I7">
-        <v>0.97</v>
+        <v>0.854</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -677,71 +677,71 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.854</v>
       </c>
       <c r="C8">
-        <v>0.997</v>
+        <v>0.851</v>
       </c>
       <c r="D8">
-        <v>0.991</v>
+        <v>0.834</v>
       </c>
       <c r="E8">
-        <v>0.979</v>
+        <v>0.78</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.845</v>
       </c>
       <c r="G8">
-        <v>0.989</v>
+        <v>0.835</v>
       </c>
       <c r="H8">
-        <v>0.975</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="I8">
-        <v>0.955</v>
+        <v>0.759</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.995</v>
-      </c>
-      <c r="F9">
-        <v>0.99</v>
-      </c>
-      <c r="G9">
-        <v>0.987</v>
-      </c>
-      <c r="H9">
-        <v>0.983</v>
-      </c>
-      <c r="I9">
-        <v>0.978</v>
-      </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B10">
+        <v>0.995</v>
+      </c>
+      <c r="C10">
+        <v>0.98</v>
+      </c>
+      <c r="D10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.84</v>
+      </c>
+      <c r="F10">
+        <v>0.982</v>
+      </c>
+      <c r="G10">
+        <v>0.958</v>
+      </c>
+      <c r="H10">
+        <v>0.911</v>
+      </c>
+      <c r="I10">
+        <v>0.819</v>
+      </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -802,31 +802,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.996</v>
+        <v>0.83</v>
       </c>
       <c r="C2">
-        <v>0.985</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D2">
-        <v>0.969</v>
+        <v>0.779</v>
       </c>
       <c r="E2">
-        <v>0.954</v>
+        <v>0.705</v>
       </c>
       <c r="F2">
-        <v>0.989</v>
+        <v>0.822</v>
       </c>
       <c r="G2">
-        <v>0.973</v>
+        <v>0.796</v>
       </c>
       <c r="H2">
-        <v>0.951</v>
+        <v>0.762</v>
       </c>
       <c r="I2">
-        <v>0.9320000000000001</v>
+        <v>0.694</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -834,31 +834,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="C3">
-        <v>0.998</v>
+        <v>0.959</v>
       </c>
       <c r="D3">
-        <v>0.995</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="E3">
-        <v>0.985</v>
+        <v>0.859</v>
       </c>
       <c r="F3">
-        <v>0.995</v>
+        <v>0.963</v>
       </c>
       <c r="G3">
-        <v>0.989</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H3">
-        <v>0.978</v>
+        <v>0.908</v>
       </c>
       <c r="I3">
-        <v>0.964</v>
+        <v>0.84</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -866,31 +866,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.953</v>
       </c>
       <c r="C4">
-        <v>0.996</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D4">
-        <v>0.988</v>
+        <v>0.898</v>
       </c>
       <c r="E4">
-        <v>0.972</v>
+        <v>0.849</v>
       </c>
       <c r="F4">
-        <v>0.992</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="G4">
-        <v>0.984</v>
+        <v>0.916</v>
       </c>
       <c r="H4">
-        <v>0.971</v>
+        <v>0.876</v>
       </c>
       <c r="I4">
-        <v>0.951</v>
+        <v>0.824</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -898,31 +898,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.961</v>
+        <v>0.992</v>
       </c>
       <c r="C5">
-        <v>0.948</v>
+        <v>0.978</v>
       </c>
       <c r="D5">
-        <v>0.9360000000000001</v>
+        <v>0.949</v>
       </c>
       <c r="E5">
-        <v>0.921</v>
+        <v>0.89</v>
       </c>
       <c r="F5">
-        <v>0.956</v>
+        <v>0.975</v>
       </c>
       <c r="G5">
-        <v>0.9409999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="H5">
-        <v>0.925</v>
+        <v>0.923</v>
       </c>
       <c r="I5">
-        <v>0.906</v>
+        <v>0.869</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -930,31 +930,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.972</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F6">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.97</v>
       </c>
       <c r="H6">
-        <v>0.991</v>
+        <v>0.949</v>
       </c>
       <c r="I6">
-        <v>0.983</v>
+        <v>0.915</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -962,31 +962,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.961</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="G7">
-        <v>0.993</v>
+        <v>0.982</v>
       </c>
       <c r="H7">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="I7">
-        <v>0.986</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J7">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -997,25 +997,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.979</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.97</v>
       </c>
       <c r="I8">
-        <v>0.988</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J8">
         <v>54</v>
@@ -1029,36 +1029,60 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E9">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="H9">
-        <v>0.996</v>
+        <v>0.973</v>
       </c>
       <c r="I9">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.999</v>
+      </c>
+      <c r="D10">
+        <v>0.995</v>
+      </c>
+      <c r="E10">
+        <v>0.984</v>
+      </c>
+      <c r="F10">
+        <v>0.992</v>
+      </c>
+      <c r="G10">
+        <v>0.984</v>
+      </c>
+      <c r="H10">
+        <v>0.969</v>
+      </c>
+      <c r="I10">
+        <v>0.9340000000000001</v>
+      </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1119,31 +1143,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.904</v>
+        <v>0.978</v>
       </c>
       <c r="C2">
-        <v>0.88</v>
+        <v>0.965</v>
       </c>
       <c r="D2">
-        <v>0.864</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E2">
-        <v>0.848</v>
+        <v>0.883</v>
       </c>
       <c r="F2">
-        <v>0.903</v>
+        <v>0.96</v>
       </c>
       <c r="G2">
-        <v>0.876</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="H2">
-        <v>0.855</v>
+        <v>0.907</v>
       </c>
       <c r="I2">
-        <v>0.832</v>
+        <v>0.851</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1175,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.991</v>
+        <v>0.987</v>
       </c>
       <c r="C3">
-        <v>0.97</v>
+        <v>0.972</v>
       </c>
       <c r="D3">
-        <v>0.944</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E3">
-        <v>0.919</v>
+        <v>0.876</v>
       </c>
       <c r="F3">
-        <v>0.988</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.964</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.9320000000000001</v>
+        <v>0.916</v>
       </c>
       <c r="I3">
-        <v>0.902</v>
+        <v>0.857</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1207,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="C4">
-        <v>0.997</v>
+        <v>0.963</v>
       </c>
       <c r="D4">
-        <v>0.992</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E4">
-        <v>0.981</v>
+        <v>0.898</v>
       </c>
       <c r="F4">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
       <c r="G4">
-        <v>0.986</v>
+        <v>0.947</v>
       </c>
       <c r="H4">
-        <v>0.976</v>
+        <v>0.923</v>
       </c>
       <c r="I4">
-        <v>0.96</v>
+        <v>0.881</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1239,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="D5">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="E5">
-        <v>0.985</v>
+        <v>0.968</v>
       </c>
       <c r="F5">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="G5">
-        <v>0.986</v>
+        <v>0.968</v>
       </c>
       <c r="H5">
-        <v>0.977</v>
+        <v>0.954</v>
       </c>
       <c r="I5">
-        <v>0.965</v>
+        <v>0.923</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1250,28 +1274,28 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.982</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.991</v>
+        <v>0.986</v>
       </c>
       <c r="H6">
-        <v>0.988</v>
+        <v>0.974</v>
       </c>
       <c r="I6">
-        <v>0.983</v>
+        <v>0.946</v>
       </c>
       <c r="J6">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1282,28 +1306,28 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F7">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H7">
-        <v>0.992</v>
+        <v>0.976</v>
       </c>
       <c r="I7">
-        <v>0.985</v>
+        <v>0.949</v>
       </c>
       <c r="J7">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1314,60 +1338,36 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.987</v>
       </c>
       <c r="I8">
-        <v>0.985</v>
+        <v>0.968</v>
       </c>
       <c r="J8">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.999</v>
-      </c>
-      <c r="F9">
-        <v>0.999</v>
-      </c>
-      <c r="G9">
-        <v>0.996</v>
-      </c>
-      <c r="H9">
-        <v>0.991</v>
-      </c>
-      <c r="I9">
-        <v>0.983</v>
-      </c>
       <c r="J9">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1436,28 +1436,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="C2">
-        <v>0.991</v>
+        <v>0.968</v>
       </c>
       <c r="D2">
-        <v>0.98</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="E2">
-        <v>0.968</v>
+        <v>0.886</v>
       </c>
       <c r="F2">
-        <v>0.992</v>
+        <v>0.963</v>
       </c>
       <c r="G2">
-        <v>0.98</v>
+        <v>0.946</v>
       </c>
       <c r="H2">
-        <v>0.963</v>
+        <v>0.911</v>
       </c>
       <c r="I2">
-        <v>0.946</v>
+        <v>0.856</v>
       </c>
       <c r="J2">
         <v>49</v>
@@ -1468,28 +1468,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
       <c r="D3">
-        <v>0.99</v>
+        <v>0.945</v>
       </c>
       <c r="E3">
+        <v>0.883</v>
+      </c>
+      <c r="F3">
         <v>0.974</v>
       </c>
-      <c r="F3">
-        <v>0.992</v>
-      </c>
       <c r="G3">
-        <v>0.985</v>
+        <v>0.954</v>
       </c>
       <c r="H3">
-        <v>0.974</v>
+        <v>0.922</v>
       </c>
       <c r="I3">
-        <v>0.954</v>
+        <v>0.867</v>
       </c>
       <c r="J3">
         <v>32</v>
@@ -1500,28 +1500,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.981</v>
+        <v>0.969</v>
       </c>
       <c r="C4">
-        <v>0.974</v>
+        <v>0.961</v>
       </c>
       <c r="D4">
-        <v>0.969</v>
+        <v>0.952</v>
       </c>
       <c r="E4">
-        <v>0.961</v>
+        <v>0.931</v>
       </c>
       <c r="F4">
-        <v>0.978</v>
+        <v>0.959</v>
       </c>
       <c r="G4">
-        <v>0.968</v>
+        <v>0.945</v>
       </c>
       <c r="H4">
-        <v>0.959</v>
+        <v>0.926</v>
       </c>
       <c r="I4">
-        <v>0.945</v>
+        <v>0.888</v>
       </c>
       <c r="J4">
         <v>28</v>
@@ -1535,25 +1535,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="I5">
-        <v>0.987</v>
+        <v>0.946</v>
       </c>
       <c r="J5">
         <v>58</v>
@@ -1567,25 +1567,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.994</v>
+        <v>0.988</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.977</v>
       </c>
       <c r="I6">
-        <v>0.988</v>
+        <v>0.95</v>
       </c>
       <c r="J6">
         <v>56</v>
@@ -1599,25 +1599,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E7">
+        <v>0.983</v>
+      </c>
+      <c r="F7">
         <v>0.997</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="H7">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="I7">
-        <v>0.993</v>
+        <v>0.964</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -1708,28 +1708,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0.991</v>
       </c>
       <c r="H2">
-        <v>0.991</v>
+        <v>0.98</v>
       </c>
       <c r="I2">
-        <v>0.984</v>
+        <v>0.955</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1740,28 +1740,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G3">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="H3">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="I3">
-        <v>0.988</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1769,31 +1769,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E4">
-        <v>0.997</v>
+        <v>0.97</v>
       </c>
       <c r="F4">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="H4">
-        <v>0.993</v>
+        <v>0.966</v>
       </c>
       <c r="I4">
-        <v>0.985</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1801,31 +1801,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="D5">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="E5">
-        <v>0.997</v>
+        <v>0.944</v>
       </c>
       <c r="F5">
-        <v>0.999</v>
+        <v>0.979</v>
       </c>
       <c r="G5">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="H5">
-        <v>0.989</v>
+        <v>0.95</v>
       </c>
       <c r="I5">
-        <v>0.984</v>
+        <v>0.918</v>
       </c>
       <c r="J5">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1833,31 +1833,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.978</v>
+        <v>0.997</v>
       </c>
       <c r="C6">
-        <v>0.971</v>
+        <v>0.988</v>
       </c>
       <c r="D6">
-        <v>0.964</v>
+        <v>0.969</v>
       </c>
       <c r="E6">
-        <v>0.954</v>
+        <v>0.928</v>
       </c>
       <c r="F6">
-        <v>0.975</v>
+        <v>0.981</v>
       </c>
       <c r="G6">
-        <v>0.959</v>
+        <v>0.97</v>
       </c>
       <c r="H6">
-        <v>0.949</v>
+        <v>0.946</v>
       </c>
       <c r="I6">
-        <v>0.9360000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1865,31 +1865,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.962</v>
       </c>
       <c r="C7">
-        <v>0.995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D7">
-        <v>0.985</v>
+        <v>0.906</v>
       </c>
       <c r="E7">
-        <v>0.966</v>
+        <v>0.848</v>
       </c>
       <c r="F7">
-        <v>0.995</v>
+        <v>0.948</v>
       </c>
       <c r="G7">
-        <v>0.984</v>
+        <v>0.921</v>
       </c>
       <c r="H7">
-        <v>0.969</v>
+        <v>0.881</v>
       </c>
       <c r="I7">
-        <v>0.947</v>
+        <v>0.825</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1897,31 +1897,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="C8">
-        <v>0.998</v>
+        <v>0.973</v>
       </c>
       <c r="D8">
-        <v>0.991</v>
+        <v>0.948</v>
       </c>
       <c r="E8">
-        <v>0.982</v>
+        <v>0.896</v>
       </c>
       <c r="F8">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="G8">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="H8">
-        <v>0.976</v>
+        <v>0.927</v>
       </c>
       <c r="I8">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1929,31 +1929,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.995</v>
+        <v>0.899</v>
       </c>
       <c r="C9">
-        <v>0.982</v>
+        <v>0.884</v>
       </c>
       <c r="D9">
-        <v>0.965</v>
+        <v>0.86</v>
       </c>
       <c r="E9">
-        <v>0.947</v>
+        <v>0.798</v>
       </c>
       <c r="F9">
-        <v>0.99</v>
+        <v>0.892</v>
       </c>
       <c r="G9">
-        <v>0.972</v>
+        <v>0.872</v>
       </c>
       <c r="H9">
-        <v>0.949</v>
+        <v>0.845</v>
       </c>
       <c r="I9">
-        <v>0.927</v>
+        <v>0.789</v>
       </c>
       <c r="J9">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1961,31 +1961,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.979</v>
       </c>
       <c r="C10">
-        <v>0.999</v>
+        <v>0.968</v>
       </c>
       <c r="D10">
-        <v>0.996</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E10">
-        <v>0.99</v>
+        <v>0.858</v>
       </c>
       <c r="F10">
-        <v>0.989</v>
+        <v>0.966</v>
       </c>
       <c r="G10">
-        <v>0.982</v>
+        <v>0.945</v>
       </c>
       <c r="H10">
-        <v>0.974</v>
+        <v>0.909</v>
       </c>
       <c r="I10">
-        <v>0.968</v>
+        <v>0.833</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1993,31 +1993,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="F11">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="G11">
-        <v>0.973</v>
+        <v>0.958</v>
       </c>
       <c r="H11">
-        <v>0.966</v>
+        <v>0.911</v>
       </c>
       <c r="I11">
-        <v>0.958</v>
+        <v>0.819</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2077,8 +2077,32 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.997</v>
+      </c>
+      <c r="E3">
+        <v>0.99</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.998</v>
+      </c>
+      <c r="H3">
+        <v>0.99</v>
+      </c>
+      <c r="I3">
+        <v>0.972</v>
+      </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2089,28 +2113,28 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="F4">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="H4">
-        <v>0.992</v>
+        <v>0.967</v>
       </c>
       <c r="I4">
-        <v>0.984</v>
+        <v>0.93</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2121,28 +2145,28 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.981</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="H5">
-        <v>0.995</v>
+        <v>0.971</v>
       </c>
       <c r="I5">
-        <v>0.988</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J5">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2153,28 +2177,28 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E6">
-        <v>0.999</v>
+        <v>0.971</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.983</v>
       </c>
       <c r="H6">
-        <v>0.993</v>
+        <v>0.968</v>
       </c>
       <c r="I6">
-        <v>0.987</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2182,31 +2206,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.959</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="G7">
-        <v>0.993</v>
+        <v>0.978</v>
       </c>
       <c r="H7">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="I7">
-        <v>0.984</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J7">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2214,31 +2238,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="D8">
-        <v>0.999</v>
+        <v>0.959</v>
       </c>
       <c r="E8">
-        <v>0.996</v>
+        <v>0.913</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.963</v>
       </c>
       <c r="H8">
-        <v>0.989</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I8">
-        <v>0.98</v>
+        <v>0.893</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2246,31 +2270,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.982</v>
+        <v>0.965</v>
       </c>
       <c r="C9">
-        <v>0.975</v>
+        <v>0.945</v>
       </c>
       <c r="D9">
-        <v>0.964</v>
+        <v>0.912</v>
       </c>
       <c r="E9">
-        <v>0.949</v>
+        <v>0.856</v>
       </c>
       <c r="F9">
-        <v>0.979</v>
+        <v>0.95</v>
       </c>
       <c r="G9">
-        <v>0.968</v>
+        <v>0.925</v>
       </c>
       <c r="H9">
-        <v>0.953</v>
+        <v>0.887</v>
       </c>
       <c r="I9">
-        <v>0.9320000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="J9">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2278,31 +2302,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.997</v>
+        <v>0.948</v>
       </c>
       <c r="C10">
-        <v>0.986</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D10">
-        <v>0.969</v>
+        <v>0.914</v>
       </c>
       <c r="E10">
-        <v>0.948</v>
+        <v>0.861</v>
       </c>
       <c r="F10">
-        <v>0.99</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G10">
-        <v>0.975</v>
+        <v>0.922</v>
       </c>
       <c r="H10">
-        <v>0.954</v>
+        <v>0.896</v>
       </c>
       <c r="I10">
-        <v>0.929</v>
+        <v>0.846</v>
       </c>
       <c r="J10">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2310,31 +2334,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E11">
-        <v>0.997</v>
+        <v>0.861</v>
       </c>
       <c r="F11">
-        <v>0.984</v>
+        <v>0.972</v>
       </c>
       <c r="G11">
-        <v>0.977</v>
+        <v>0.952</v>
       </c>
       <c r="H11">
-        <v>0.971</v>
+        <v>0.913</v>
       </c>
       <c r="I11">
-        <v>0.969</v>
+        <v>0.836</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2410,8 +2434,32 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.999</v>
+      </c>
+      <c r="D5">
+        <v>0.996</v>
+      </c>
+      <c r="E5">
+        <v>0.985</v>
+      </c>
+      <c r="F5">
+        <v>0.991</v>
+      </c>
+      <c r="G5">
+        <v>0.983</v>
+      </c>
+      <c r="H5">
+        <v>0.968</v>
+      </c>
+      <c r="I5">
+        <v>0.9320000000000001</v>
+      </c>
       <c r="J5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2422,28 +2470,28 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F6">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G6">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.968</v>
       </c>
       <c r="I6">
-        <v>0.983</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2454,28 +2502,28 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.979</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H7">
-        <v>0.993</v>
+        <v>0.971</v>
       </c>
       <c r="I7">
-        <v>0.987</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J7">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2483,31 +2531,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.97</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.984</v>
       </c>
       <c r="H8">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="I8">
-        <v>0.985</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J8">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2515,31 +2563,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="D9">
-        <v>0.999</v>
+        <v>0.965</v>
       </c>
       <c r="E9">
-        <v>0.997</v>
+        <v>0.925</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="G9">
-        <v>0.994</v>
+        <v>0.964</v>
       </c>
       <c r="H9">
-        <v>0.991</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="I9">
-        <v>0.984</v>
+        <v>0.903</v>
       </c>
       <c r="J9">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2547,31 +2595,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.986</v>
+        <v>0.958</v>
       </c>
       <c r="C10">
-        <v>0.978</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D10">
-        <v>0.964</v>
+        <v>0.914</v>
       </c>
       <c r="E10">
-        <v>0.947</v>
+        <v>0.864</v>
       </c>
       <c r="F10">
-        <v>0.984</v>
+        <v>0.945</v>
       </c>
       <c r="G10">
-        <v>0.972</v>
+        <v>0.924</v>
       </c>
       <c r="H10">
-        <v>0.953</v>
+        <v>0.893</v>
       </c>
       <c r="I10">
-        <v>0.929</v>
+        <v>0.845</v>
       </c>
       <c r="J10">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2579,31 +2627,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="C11">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="D11">
-        <v>0.986</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E11">
-        <v>0.976</v>
+        <v>0.869</v>
       </c>
       <c r="F11">
-        <v>0.987</v>
+        <v>0.974</v>
       </c>
       <c r="G11">
-        <v>0.975</v>
+        <v>0.954</v>
       </c>
       <c r="H11">
-        <v>0.963</v>
+        <v>0.917</v>
       </c>
       <c r="I11">
-        <v>0.952</v>
+        <v>0.845</v>
       </c>
       <c r="J11">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2687,32 +2735,8 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.998</v>
-      </c>
-      <c r="F6">
-        <v>0.999</v>
-      </c>
-      <c r="G6">
-        <v>0.996</v>
-      </c>
-      <c r="H6">
-        <v>0.99</v>
-      </c>
-      <c r="I6">
-        <v>0.979</v>
-      </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2726,25 +2750,25 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="F7">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="H7">
-        <v>0.991</v>
+        <v>0.977</v>
       </c>
       <c r="I7">
-        <v>0.983</v>
+        <v>0.948</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2755,28 +2779,28 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H8">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="I8">
-        <v>0.985</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J8">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2787,28 +2811,28 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.993</v>
       </c>
       <c r="E9">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="F9">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="G9">
-        <v>0.994</v>
+        <v>0.985</v>
       </c>
       <c r="H9">
-        <v>0.99</v>
+        <v>0.971</v>
       </c>
       <c r="I9">
-        <v>0.983</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J9">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2816,31 +2840,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="C10">
-        <v>0.989</v>
+        <v>0.978</v>
       </c>
       <c r="D10">
+        <v>0.963</v>
+      </c>
+      <c r="E10">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F10">
         <v>0.977</v>
       </c>
-      <c r="E10">
-        <v>0.962</v>
-      </c>
-      <c r="F10">
-        <v>0.989</v>
-      </c>
       <c r="G10">
-        <v>0.974</v>
+        <v>0.965</v>
       </c>
       <c r="H10">
-        <v>0.959</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I10">
-        <v>0.9419999999999999</v>
+        <v>0.903</v>
       </c>
       <c r="J10">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2848,31 +2872,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.985</v>
+        <v>0.978</v>
       </c>
       <c r="C11">
-        <v>0.981</v>
+        <v>0.964</v>
       </c>
       <c r="D11">
-        <v>0.977</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E11">
-        <v>0.968</v>
+        <v>0.876</v>
       </c>
       <c r="F11">
-        <v>0.984</v>
+        <v>0.96</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H11">
-        <v>0.966</v>
+        <v>0.912</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>0.862</v>
       </c>
       <c r="J11">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2976,25 +3000,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -3008,25 +3032,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="H9">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="I9">
-        <v>0.985</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J9">
         <v>52</v>
@@ -3037,28 +3061,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D10">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E10">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G10">
-        <v>0.994</v>
+        <v>0.983</v>
       </c>
       <c r="H10">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="I10">
-        <v>0.983</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J10">
         <v>90</v>
@@ -3069,28 +3093,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="C11">
-        <v>0.985</v>
+        <v>0.961</v>
       </c>
       <c r="D11">
-        <v>0.975</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E11">
-        <v>0.961</v>
+        <v>0.88</v>
       </c>
       <c r="F11">
-        <v>0.985</v>
+        <v>0.958</v>
       </c>
       <c r="G11">
-        <v>0.973</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H11">
-        <v>0.958</v>
+        <v>0.911</v>
       </c>
       <c r="I11">
-        <v>0.9409999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="J11">
         <v>82</v>
@@ -3146,31 +3170,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.525</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="E2">
-        <v>0.988</v>
+        <v>0.595</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.502</v>
       </c>
       <c r="G2">
-        <v>0.994</v>
+        <v>0.526</v>
       </c>
       <c r="H2">
-        <v>0.986</v>
+        <v>0.55</v>
       </c>
       <c r="I2">
-        <v>0.965</v>
+        <v>0.579</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3178,28 +3202,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="F3">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="G3">
-        <v>0.994</v>
+        <v>0.958</v>
       </c>
       <c r="H3">
-        <v>0.986</v>
+        <v>0.911</v>
       </c>
       <c r="I3">
-        <v>0.976</v>
+        <v>0.819</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3209,32 +3233,8 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.995</v>
-      </c>
-      <c r="D4">
-        <v>0.982</v>
-      </c>
-      <c r="E4">
-        <v>0.965</v>
-      </c>
-      <c r="F4">
-        <v>0.999</v>
-      </c>
-      <c r="G4">
-        <v>0.991</v>
-      </c>
-      <c r="H4">
-        <v>0.973</v>
-      </c>
-      <c r="I4">
-        <v>0.951</v>
-      </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3242,31 +3242,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.915</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="F5">
-        <v>0.993</v>
+        <v>0.904</v>
       </c>
       <c r="G5">
-        <v>0.989</v>
+        <v>0.862</v>
       </c>
       <c r="H5">
-        <v>0.984</v>
+        <v>0.803</v>
       </c>
       <c r="I5">
-        <v>0.981</v>
+        <v>0.704</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3274,31 +3274,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.955</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.928</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.888</v>
       </c>
       <c r="E6">
-        <v>0.982</v>
+        <v>0.785</v>
       </c>
       <c r="F6">
-        <v>0.994</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G6">
-        <v>0.989</v>
+        <v>0.908</v>
       </c>
       <c r="H6">
-        <v>0.979</v>
+        <v>0.863</v>
       </c>
       <c r="I6">
-        <v>0.958</v>
+        <v>0.77</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3306,31 +3306,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.842</v>
       </c>
       <c r="E7">
-        <v>0.991</v>
+        <v>0.76</v>
       </c>
       <c r="F7">
-        <v>0.994</v>
+        <v>0.887</v>
       </c>
       <c r="G7">
-        <v>0.991</v>
+        <v>0.852</v>
       </c>
       <c r="H7">
-        <v>0.986</v>
+        <v>0.826</v>
       </c>
       <c r="I7">
-        <v>0.974</v>
+        <v>0.769</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3338,31 +3338,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.997</v>
+        <v>0.966</v>
       </c>
       <c r="C8">
-        <v>0.981</v>
+        <v>0.954</v>
       </c>
       <c r="D8">
-        <v>0.965</v>
+        <v>0.922</v>
       </c>
       <c r="E8">
-        <v>0.952</v>
+        <v>0.862</v>
       </c>
       <c r="F8">
-        <v>0.987</v>
+        <v>0.958</v>
       </c>
       <c r="G8">
-        <v>0.966</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H8">
-        <v>0.9429999999999999</v>
+        <v>0.903</v>
       </c>
       <c r="I8">
-        <v>0.927</v>
+        <v>0.841</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3370,31 +3370,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.994</v>
+        <v>0.946</v>
       </c>
       <c r="C9">
-        <v>0.985</v>
+        <v>0.917</v>
       </c>
       <c r="D9">
-        <v>0.971</v>
+        <v>0.886</v>
       </c>
       <c r="E9">
-        <v>0.956</v>
+        <v>0.834</v>
       </c>
       <c r="F9">
-        <v>0.989</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G9">
-        <v>0.974</v>
+        <v>0.901</v>
       </c>
       <c r="H9">
-        <v>0.955</v>
+        <v>0.866</v>
       </c>
       <c r="I9">
-        <v>0.9370000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3402,31 +3402,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="C10">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="D10">
-        <v>0.991</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E10">
-        <v>0.982</v>
+        <v>0.87</v>
       </c>
       <c r="F10">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="G10">
-        <v>0.988</v>
+        <v>0.95</v>
       </c>
       <c r="H10">
-        <v>0.977</v>
+        <v>0.911</v>
       </c>
       <c r="I10">
-        <v>0.963</v>
+        <v>0.852</v>
       </c>
       <c r="J10">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3434,31 +3434,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
       <c r="C11">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
       <c r="D11">
-        <v>0.993</v>
+        <v>0.988</v>
       </c>
       <c r="E11">
+        <v>0.967</v>
+      </c>
+      <c r="F11">
         <v>0.988</v>
       </c>
-      <c r="F11">
-        <v>0.995</v>
-      </c>
       <c r="G11">
-        <v>0.989</v>
+        <v>0.981</v>
       </c>
       <c r="H11">
-        <v>0.984</v>
+        <v>0.965</v>
       </c>
       <c r="I11">
-        <v>0.975</v>
+        <v>0.931</v>
       </c>
       <c r="J11">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3511,31 +3511,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.748</v>
       </c>
       <c r="C2">
-        <v>0.996</v>
+        <v>0.752</v>
       </c>
       <c r="D2">
-        <v>0.982</v>
+        <v>0.745</v>
       </c>
       <c r="E2">
-        <v>0.956</v>
+        <v>0.718</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.742</v>
       </c>
       <c r="G2">
-        <v>0.991</v>
+        <v>0.742</v>
       </c>
       <c r="H2">
-        <v>0.969</v>
+        <v>0.73</v>
       </c>
       <c r="I2">
-        <v>0.9350000000000001</v>
+        <v>0.699</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3543,31 +3543,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.915</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="D3">
-        <v>0.999</v>
+        <v>0.825</v>
       </c>
       <c r="E3">
-        <v>0.992</v>
+        <v>0.71</v>
       </c>
       <c r="F3">
-        <v>0.995</v>
+        <v>0.904</v>
       </c>
       <c r="G3">
-        <v>0.991</v>
+        <v>0.862</v>
       </c>
       <c r="H3">
-        <v>0.984</v>
+        <v>0.803</v>
       </c>
       <c r="I3">
-        <v>0.971</v>
+        <v>0.704</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3575,31 +3575,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.928</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.899</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="E4">
-        <v>0.997</v>
+        <v>0.772</v>
       </c>
       <c r="F4">
-        <v>0.989</v>
+        <v>0.915</v>
       </c>
       <c r="G4">
-        <v>0.983</v>
+        <v>0.88</v>
       </c>
       <c r="H4">
-        <v>0.976</v>
+        <v>0.844</v>
       </c>
       <c r="I4">
-        <v>0.971</v>
+        <v>0.769</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3607,31 +3607,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="C5">
-        <v>0.965</v>
+        <v>0.986</v>
       </c>
       <c r="D5">
-        <v>0.9340000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="E5">
-        <v>0.909</v>
+        <v>0.891</v>
       </c>
       <c r="F5">
         <v>0.986</v>
       </c>
       <c r="G5">
-        <v>0.957</v>
+        <v>0.969</v>
       </c>
       <c r="H5">
-        <v>0.922</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="I5">
-        <v>0.893</v>
+        <v>0.868</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3639,31 +3639,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.902</v>
       </c>
       <c r="D6">
-        <v>0.994</v>
+        <v>0.861</v>
       </c>
       <c r="E6">
-        <v>0.985</v>
+        <v>0.801</v>
       </c>
       <c r="F6">
-        <v>0.992</v>
+        <v>0.921</v>
       </c>
       <c r="G6">
-        <v>0.987</v>
+        <v>0.885</v>
       </c>
       <c r="H6">
-        <v>0.975</v>
+        <v>0.839</v>
       </c>
       <c r="I6">
-        <v>0.963</v>
+        <v>0.78</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3671,31 +3671,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="C7">
-        <v>0.997</v>
+        <v>0.945</v>
       </c>
       <c r="D7">
-        <v>0.991</v>
+        <v>0.912</v>
       </c>
       <c r="E7">
-        <v>0.984</v>
+        <v>0.855</v>
       </c>
       <c r="F7">
-        <v>0.995</v>
+        <v>0.954</v>
       </c>
       <c r="G7">
-        <v>0.986</v>
+        <v>0.927</v>
       </c>
       <c r="H7">
-        <v>0.977</v>
+        <v>0.891</v>
       </c>
       <c r="I7">
-        <v>0.965</v>
+        <v>0.837</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3703,31 +3703,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C8">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="D8">
-        <v>0.987</v>
+        <v>0.958</v>
       </c>
       <c r="E8">
-        <v>0.97</v>
+        <v>0.903</v>
       </c>
       <c r="F8">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="G8">
-        <v>0.983</v>
+        <v>0.961</v>
       </c>
       <c r="H8">
-        <v>0.97</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I8">
-        <v>0.949</v>
+        <v>0.883</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3735,31 +3735,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.979</v>
+        <v>0.994</v>
       </c>
       <c r="C9">
-        <v>0.973</v>
+        <v>0.985</v>
       </c>
       <c r="D9">
-        <v>0.967</v>
+        <v>0.966</v>
       </c>
       <c r="E9">
-        <v>0.96</v>
+        <v>0.929</v>
       </c>
       <c r="F9">
-        <v>0.976</v>
+        <v>0.98</v>
       </c>
       <c r="G9">
-        <v>0.961</v>
+        <v>0.968</v>
       </c>
       <c r="H9">
-        <v>0.952</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I9">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="J9">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3767,31 +3767,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D10">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="E10">
-        <v>0.997</v>
+        <v>0.967</v>
       </c>
       <c r="F10">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="G10">
-        <v>0.994</v>
+        <v>0.982</v>
       </c>
       <c r="H10">
-        <v>0.99</v>
+        <v>0.966</v>
       </c>
       <c r="I10">
-        <v>0.983</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J10">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3802,28 +3802,28 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E11">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="H11">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="I11">
-        <v>0.989</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3876,31 +3876,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.803</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.795</v>
       </c>
       <c r="D2">
-        <v>0.998</v>
+        <v>0.772</v>
       </c>
       <c r="E2">
-        <v>0.987</v>
+        <v>0.715</v>
       </c>
       <c r="F2">
-        <v>0.994</v>
+        <v>0.796</v>
       </c>
       <c r="G2">
-        <v>0.989</v>
+        <v>0.782</v>
       </c>
       <c r="H2">
-        <v>0.979</v>
+        <v>0.755</v>
       </c>
       <c r="I2">
-        <v>0.962</v>
+        <v>0.701</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3908,31 +3908,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.995</v>
+        <v>0.928</v>
       </c>
       <c r="C3">
-        <v>0.98</v>
+        <v>0.899</v>
       </c>
       <c r="D3">
-        <v>0.957</v>
+        <v>0.865</v>
       </c>
       <c r="E3">
-        <v>0.9360000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="F3">
-        <v>0.987</v>
+        <v>0.915</v>
       </c>
       <c r="G3">
-        <v>0.968</v>
+        <v>0.88</v>
       </c>
       <c r="H3">
-        <v>0.9399999999999999</v>
+        <v>0.844</v>
       </c>
       <c r="I3">
-        <v>0.916</v>
+        <v>0.769</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3940,31 +3940,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="D4">
-        <v>0.999</v>
+        <v>0.959</v>
       </c>
       <c r="E4">
-        <v>0.995</v>
+        <v>0.894</v>
       </c>
       <c r="F4">
-        <v>0.994</v>
+        <v>0.986</v>
       </c>
       <c r="G4">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="H4">
-        <v>0.983</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="I4">
-        <v>0.973</v>
+        <v>0.87</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3972,31 +3972,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C5">
-        <v>0.997</v>
+        <v>0.914</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>0.881</v>
       </c>
       <c r="E5">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="F5">
-        <v>0.993</v>
+        <v>0.93</v>
       </c>
       <c r="G5">
-        <v>0.985</v>
+        <v>0.899</v>
       </c>
       <c r="H5">
-        <v>0.974</v>
+        <v>0.86</v>
       </c>
       <c r="I5">
-        <v>0.96</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4004,31 +4004,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="C6">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="D6">
-        <v>0.987</v>
+        <v>0.945</v>
       </c>
       <c r="E6">
-        <v>0.967</v>
+        <v>0.884</v>
       </c>
       <c r="F6">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="G6">
-        <v>0.984</v>
+        <v>0.954</v>
       </c>
       <c r="H6">
-        <v>0.971</v>
+        <v>0.919</v>
       </c>
       <c r="I6">
-        <v>0.948</v>
+        <v>0.864</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4036,31 +4036,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.968</v>
+        <v>0.994</v>
       </c>
       <c r="C7">
-        <v>0.957</v>
+        <v>0.984</v>
       </c>
       <c r="D7">
-        <v>0.948</v>
+        <v>0.964</v>
       </c>
       <c r="E7">
-        <v>0.9370000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="F7">
-        <v>0.965</v>
+        <v>0.978</v>
       </c>
       <c r="G7">
-        <v>0.95</v>
+        <v>0.966</v>
       </c>
       <c r="H7">
-        <v>0.9370000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I7">
-        <v>0.92</v>
+        <v>0.899</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4068,31 +4068,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="E8">
-        <v>0.997</v>
+        <v>0.961</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="G8">
-        <v>0.993</v>
+        <v>0.982</v>
       </c>
       <c r="H8">
-        <v>0.99</v>
+        <v>0.966</v>
       </c>
       <c r="I8">
-        <v>0.984</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J8">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4103,28 +4103,28 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E9">
-        <v>0.998</v>
+        <v>0.971</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G9">
-        <v>0.994</v>
+        <v>0.983</v>
       </c>
       <c r="H9">
-        <v>0.992</v>
+        <v>0.967</v>
       </c>
       <c r="I9">
-        <v>0.986</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4135,28 +4135,28 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G10">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="H10">
-        <v>0.996</v>
+        <v>0.973</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4167,28 +4167,28 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.986</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="I11">
-        <v>0.998</v>
+        <v>0.945</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
